--- a/Test Dilucion.xlsx
+++ b/Test Dilucion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\13. Innovacion (IR)\Celdas Jameson\Nuevas simulaciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igroj\OneDrive\Documentos\DEV\Split-Factores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD36815-6EFB-4F73-9970-FDDCC44CF7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD27E64D-1EEA-4B08-B01C-A2AF99355CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,13 +120,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3605,16 +3605,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="14.54296875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="14.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>0.61244873721113258</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>0.61244873721113258</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>0.61244873721113258</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>0.61244873721113258</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>0.61244873721113258</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>0.61244873721113258</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>0.61244873721113258</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>0.61244873721113258</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>4.7359999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>4.7359999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>4.7359999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>4.7359999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>4.7359999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>4.7359999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>4.7359999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>4.7359999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>2.254</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>2.254</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>2.254</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>2.254</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>2.254</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>2.254</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>2.254</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>2.254</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>1.698</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>1.698</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>6</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>1.698</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>6</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>1.698</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>6</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>1.698</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>1.698</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>1.698</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>1.698</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>7</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>2.468</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>7</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>2.468</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>7</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>2.468</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>7</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>2.468</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>7</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>2.468</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>7</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>2.468</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>7</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>2.468</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>7</v>
       </c>
